--- a/Genshin Impact_TC.xlsx
+++ b/Genshin Impact_TC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PORTFOLIO\BGY_PORTFOLIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF53CBF-4F5C-41E7-9C48-D0038AF6C6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87FE116-F5D0-4F3F-AD20-2C6492D7C330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="양식" sheetId="1" r:id="rId1"/>
@@ -722,20 +722,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1050,8 +1050,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:E447"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D115" sqref="D115"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1066,12 +1066,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="27.6" x14ac:dyDescent="0.4">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="2:5" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B3" s="7"/>
@@ -1121,10 +1121,10 @@
       <c r="B8" s="11">
         <v>1</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="19"/>
@@ -1133,8 +1133,8 @@
       <c r="B9" s="11">
         <v>2</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="23" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="19"/>
@@ -1143,8 +1143,8 @@
       <c r="B10" s="11">
         <v>3</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="23" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="19"/>
@@ -1153,8 +1153,8 @@
       <c r="B11" s="11">
         <v>4</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="23" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="19"/>
@@ -1163,8 +1163,8 @@
       <c r="B12" s="11">
         <v>5</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26" t="s">
+      <c r="C12" s="24"/>
+      <c r="D12" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="19"/>
@@ -1173,8 +1173,8 @@
       <c r="B13" s="11">
         <v>6</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26" t="s">
+      <c r="C13" s="24"/>
+      <c r="D13" s="23" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="19"/>
@@ -1183,8 +1183,8 @@
       <c r="B14" s="11">
         <v>7</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="23" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="19"/>
@@ -1193,8 +1193,8 @@
       <c r="B15" s="11">
         <v>8</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26" t="s">
+      <c r="C15" s="24"/>
+      <c r="D15" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="19"/>
@@ -1203,8 +1203,8 @@
       <c r="B16" s="11">
         <v>9</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26" t="s">
+      <c r="C16" s="24"/>
+      <c r="D16" s="23" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="19"/>
@@ -1213,8 +1213,8 @@
       <c r="B17" s="11">
         <v>10</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26" t="s">
+      <c r="C17" s="24"/>
+      <c r="D17" s="23" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="19"/>
@@ -1223,8 +1223,8 @@
       <c r="B18" s="11">
         <v>11</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26" t="s">
+      <c r="C18" s="24"/>
+      <c r="D18" s="23" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="19"/>
@@ -1233,8 +1233,8 @@
       <c r="B19" s="11">
         <v>12</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26" t="s">
+      <c r="C19" s="24"/>
+      <c r="D19" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="19"/>
@@ -1243,8 +1243,8 @@
       <c r="B20" s="11">
         <v>13</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26" t="s">
+      <c r="C20" s="24"/>
+      <c r="D20" s="23" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="19"/>
@@ -1253,8 +1253,8 @@
       <c r="B21" s="11">
         <v>14</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26" t="s">
+      <c r="C21" s="24"/>
+      <c r="D21" s="23" t="s">
         <v>21</v>
       </c>
       <c r="E21" s="19"/>
@@ -1263,10 +1263,10 @@
       <c r="B22" s="11">
         <v>15</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="23" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="19"/>
@@ -1275,8 +1275,8 @@
       <c r="B23" s="11">
         <v>16</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26" t="s">
+      <c r="C23" s="24"/>
+      <c r="D23" s="23" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="19"/>
@@ -1285,8 +1285,8 @@
       <c r="B24" s="11">
         <v>17</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26" t="s">
+      <c r="C24" s="24"/>
+      <c r="D24" s="23" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="19"/>
@@ -1295,8 +1295,8 @@
       <c r="B25" s="11">
         <v>18</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26" t="s">
+      <c r="C25" s="24"/>
+      <c r="D25" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E25" s="19"/>
@@ -1305,8 +1305,8 @@
       <c r="B26" s="11">
         <v>19</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26" t="s">
+      <c r="C26" s="24"/>
+      <c r="D26" s="23" t="s">
         <v>27</v>
       </c>
       <c r="E26" s="19"/>
@@ -1315,8 +1315,8 @@
       <c r="B27" s="11">
         <v>20</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26" t="s">
+      <c r="C27" s="24"/>
+      <c r="D27" s="23" t="s">
         <v>28</v>
       </c>
       <c r="E27" s="19"/>
@@ -1325,8 +1325,8 @@
       <c r="B28" s="11">
         <v>21</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26" t="s">
+      <c r="C28" s="24"/>
+      <c r="D28" s="23" t="s">
         <v>29</v>
       </c>
       <c r="E28" s="19"/>
@@ -1335,8 +1335,8 @@
       <c r="B29" s="11">
         <v>22</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="26" t="s">
+      <c r="C29" s="24"/>
+      <c r="D29" s="23" t="s">
         <v>30</v>
       </c>
       <c r="E29" s="19"/>
@@ -1345,8 +1345,8 @@
       <c r="B30" s="11">
         <v>23</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26" t="s">
+      <c r="C30" s="24"/>
+      <c r="D30" s="23" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="19"/>
@@ -1355,8 +1355,8 @@
       <c r="B31" s="11">
         <v>24</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="26" t="s">
+      <c r="C31" s="24"/>
+      <c r="D31" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E31" s="19"/>
@@ -1365,8 +1365,8 @@
       <c r="B32" s="11">
         <v>25</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="26" t="s">
+      <c r="C32" s="24"/>
+      <c r="D32" s="23" t="s">
         <v>33</v>
       </c>
       <c r="E32" s="19"/>
@@ -1375,10 +1375,10 @@
       <c r="B33" s="11">
         <v>26</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="23" t="s">
         <v>35</v>
       </c>
       <c r="E33" s="19"/>
@@ -1387,8 +1387,8 @@
       <c r="B34" s="11">
         <v>27</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="26" t="s">
+      <c r="C34" s="24"/>
+      <c r="D34" s="23" t="s">
         <v>36</v>
       </c>
       <c r="E34" s="19"/>
@@ -1397,8 +1397,8 @@
       <c r="B35" s="11">
         <v>28</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="26" t="s">
+      <c r="C35" s="24"/>
+      <c r="D35" s="23" t="s">
         <v>37</v>
       </c>
       <c r="E35" s="19"/>
@@ -1407,8 +1407,8 @@
       <c r="B36" s="11">
         <v>29</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="26" t="s">
+      <c r="C36" s="24"/>
+      <c r="D36" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E36" s="19"/>
@@ -1417,8 +1417,8 @@
       <c r="B37" s="11">
         <v>30</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="26" t="s">
+      <c r="C37" s="24"/>
+      <c r="D37" s="23" t="s">
         <v>39</v>
       </c>
       <c r="E37" s="19"/>
@@ -1427,8 +1427,8 @@
       <c r="B38" s="11">
         <v>31</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="26" t="s">
+      <c r="C38" s="24"/>
+      <c r="D38" s="23" t="s">
         <v>40</v>
       </c>
       <c r="E38" s="19"/>
@@ -1437,8 +1437,8 @@
       <c r="B39" s="11">
         <v>32</v>
       </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="26" t="s">
+      <c r="C39" s="24"/>
+      <c r="D39" s="23" t="s">
         <v>41</v>
       </c>
       <c r="E39" s="19"/>
@@ -1447,8 +1447,8 @@
       <c r="B40" s="11">
         <v>33</v>
       </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26" t="s">
+      <c r="C40" s="24"/>
+      <c r="D40" s="23" t="s">
         <v>42</v>
       </c>
       <c r="E40" s="19"/>
@@ -1457,8 +1457,8 @@
       <c r="B41" s="11">
         <v>34</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="26" t="s">
+      <c r="C41" s="24"/>
+      <c r="D41" s="23" t="s">
         <v>43</v>
       </c>
       <c r="E41" s="19"/>
@@ -1467,8 +1467,8 @@
       <c r="B42" s="11">
         <v>35</v>
       </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="26" t="s">
+      <c r="C42" s="24"/>
+      <c r="D42" s="23" t="s">
         <v>44</v>
       </c>
       <c r="E42" s="19"/>
@@ -1477,8 +1477,8 @@
       <c r="B43" s="11">
         <v>36</v>
       </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="26" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="23" t="s">
         <v>45</v>
       </c>
       <c r="E43" s="19"/>
@@ -1487,8 +1487,8 @@
       <c r="B44" s="11">
         <v>37</v>
       </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="26" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="23" t="s">
         <v>46</v>
       </c>
       <c r="E44" s="19"/>
@@ -1497,8 +1497,8 @@
       <c r="B45" s="11">
         <v>38</v>
       </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="26" t="s">
+      <c r="C45" s="24"/>
+      <c r="D45" s="23" t="s">
         <v>47</v>
       </c>
       <c r="E45" s="19"/>
@@ -1507,8 +1507,8 @@
       <c r="B46" s="11">
         <v>39</v>
       </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="26" t="s">
+      <c r="C46" s="24"/>
+      <c r="D46" s="23" t="s">
         <v>48</v>
       </c>
       <c r="E46" s="19"/>
@@ -1517,8 +1517,8 @@
       <c r="B47" s="11">
         <v>40</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26" t="s">
+      <c r="C47" s="24"/>
+      <c r="D47" s="23" t="s">
         <v>49</v>
       </c>
       <c r="E47" s="19"/>
@@ -1527,8 +1527,8 @@
       <c r="B48" s="11">
         <v>41</v>
       </c>
-      <c r="C48" s="25"/>
-      <c r="D48" s="26" t="s">
+      <c r="C48" s="24"/>
+      <c r="D48" s="23" t="s">
         <v>50</v>
       </c>
       <c r="E48" s="19"/>
@@ -1537,8 +1537,8 @@
       <c r="B49" s="11">
         <v>42</v>
       </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="26" t="s">
+      <c r="C49" s="24"/>
+      <c r="D49" s="23" t="s">
         <v>51</v>
       </c>
       <c r="E49" s="19"/>
@@ -1547,8 +1547,8 @@
       <c r="B50" s="11">
         <v>43</v>
       </c>
-      <c r="C50" s="25"/>
-      <c r="D50" s="26" t="s">
+      <c r="C50" s="24"/>
+      <c r="D50" s="23" t="s">
         <v>52</v>
       </c>
       <c r="E50" s="19"/>
@@ -1557,8 +1557,8 @@
       <c r="B51" s="11">
         <v>44</v>
       </c>
-      <c r="C51" s="25"/>
-      <c r="D51" s="26" t="s">
+      <c r="C51" s="24"/>
+      <c r="D51" s="23" t="s">
         <v>53</v>
       </c>
       <c r="E51" s="19"/>
@@ -1567,8 +1567,8 @@
       <c r="B52" s="11">
         <v>45</v>
       </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="26" t="s">
+      <c r="C52" s="24"/>
+      <c r="D52" s="23" t="s">
         <v>54</v>
       </c>
       <c r="E52" s="19"/>
@@ -1577,8 +1577,8 @@
       <c r="B53" s="11">
         <v>46</v>
       </c>
-      <c r="C53" s="25"/>
-      <c r="D53" s="26" t="s">
+      <c r="C53" s="24"/>
+      <c r="D53" s="23" t="s">
         <v>55</v>
       </c>
       <c r="E53" s="19"/>
@@ -1587,8 +1587,8 @@
       <c r="B54" s="11">
         <v>47</v>
       </c>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26" t="s">
+      <c r="C54" s="24"/>
+      <c r="D54" s="23" t="s">
         <v>56</v>
       </c>
       <c r="E54" s="19"/>
@@ -1597,8 +1597,8 @@
       <c r="B55" s="11">
         <v>48</v>
       </c>
-      <c r="C55" s="25"/>
-      <c r="D55" s="26" t="s">
+      <c r="C55" s="24"/>
+      <c r="D55" s="23" t="s">
         <v>57</v>
       </c>
       <c r="E55" s="19"/>
@@ -1607,8 +1607,8 @@
       <c r="B56" s="11">
         <v>49</v>
       </c>
-      <c r="C56" s="25"/>
-      <c r="D56" s="26" t="s">
+      <c r="C56" s="24"/>
+      <c r="D56" s="23" t="s">
         <v>58</v>
       </c>
       <c r="E56" s="19"/>
@@ -1617,8 +1617,8 @@
       <c r="B57" s="11">
         <v>50</v>
       </c>
-      <c r="C57" s="25"/>
-      <c r="D57" s="26" t="s">
+      <c r="C57" s="24"/>
+      <c r="D57" s="23" t="s">
         <v>59</v>
       </c>
       <c r="E57" s="19"/>
@@ -1627,10 +1627,10 @@
       <c r="B58" s="11">
         <v>51</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D58" s="26" t="s">
+      <c r="D58" s="23" t="s">
         <v>61</v>
       </c>
       <c r="E58" s="19"/>
@@ -1639,8 +1639,8 @@
       <c r="B59" s="11">
         <v>52</v>
       </c>
-      <c r="C59" s="25"/>
-      <c r="D59" s="26" t="s">
+      <c r="C59" s="24"/>
+      <c r="D59" s="23" t="s">
         <v>62</v>
       </c>
       <c r="E59" s="19"/>
@@ -1649,8 +1649,8 @@
       <c r="B60" s="11">
         <v>53</v>
       </c>
-      <c r="C60" s="25"/>
-      <c r="D60" s="26" t="s">
+      <c r="C60" s="24"/>
+      <c r="D60" s="23" t="s">
         <v>63</v>
       </c>
       <c r="E60" s="19"/>
@@ -1659,8 +1659,8 @@
       <c r="B61" s="11">
         <v>54</v>
       </c>
-      <c r="C61" s="25"/>
-      <c r="D61" s="26" t="s">
+      <c r="C61" s="24"/>
+      <c r="D61" s="23" t="s">
         <v>64</v>
       </c>
       <c r="E61" s="19"/>
@@ -1669,8 +1669,8 @@
       <c r="B62" s="11">
         <v>55</v>
       </c>
-      <c r="C62" s="25"/>
-      <c r="D62" s="26" t="s">
+      <c r="C62" s="24"/>
+      <c r="D62" s="23" t="s">
         <v>65</v>
       </c>
       <c r="E62" s="19"/>
@@ -1679,8 +1679,8 @@
       <c r="B63" s="11">
         <v>56</v>
       </c>
-      <c r="C63" s="25"/>
-      <c r="D63" s="26" t="s">
+      <c r="C63" s="24"/>
+      <c r="D63" s="23" t="s">
         <v>66</v>
       </c>
       <c r="E63" s="19"/>
@@ -1689,8 +1689,8 @@
       <c r="B64" s="11">
         <v>57</v>
       </c>
-      <c r="C64" s="25"/>
-      <c r="D64" s="26" t="s">
+      <c r="C64" s="24"/>
+      <c r="D64" s="23" t="s">
         <v>67</v>
       </c>
       <c r="E64" s="19"/>
@@ -1699,8 +1699,8 @@
       <c r="B65" s="11">
         <v>58</v>
       </c>
-      <c r="C65" s="25"/>
-      <c r="D65" s="26" t="s">
+      <c r="C65" s="24"/>
+      <c r="D65" s="23" t="s">
         <v>68</v>
       </c>
       <c r="E65" s="19"/>
@@ -1709,8 +1709,8 @@
       <c r="B66" s="11">
         <v>59</v>
       </c>
-      <c r="C66" s="25"/>
-      <c r="D66" s="26" t="s">
+      <c r="C66" s="24"/>
+      <c r="D66" s="23" t="s">
         <v>69</v>
       </c>
       <c r="E66" s="19"/>
@@ -1719,8 +1719,8 @@
       <c r="B67" s="11">
         <v>60</v>
       </c>
-      <c r="C67" s="25"/>
-      <c r="D67" s="26" t="s">
+      <c r="C67" s="24"/>
+      <c r="D67" s="23" t="s">
         <v>70</v>
       </c>
       <c r="E67" s="19"/>
@@ -1729,8 +1729,8 @@
       <c r="B68" s="11">
         <v>61</v>
       </c>
-      <c r="C68" s="25"/>
-      <c r="D68" s="26" t="s">
+      <c r="C68" s="24"/>
+      <c r="D68" s="23" t="s">
         <v>71</v>
       </c>
       <c r="E68" s="19"/>
@@ -1739,8 +1739,8 @@
       <c r="B69" s="11">
         <v>62</v>
       </c>
-      <c r="C69" s="25"/>
-      <c r="D69" s="26" t="s">
+      <c r="C69" s="24"/>
+      <c r="D69" s="23" t="s">
         <v>72</v>
       </c>
       <c r="E69" s="19"/>
@@ -1749,8 +1749,8 @@
       <c r="B70" s="11">
         <v>63</v>
       </c>
-      <c r="C70" s="25"/>
-      <c r="D70" s="26" t="s">
+      <c r="C70" s="24"/>
+      <c r="D70" s="23" t="s">
         <v>73</v>
       </c>
       <c r="E70" s="19"/>
@@ -1759,8 +1759,8 @@
       <c r="B71" s="11">
         <v>64</v>
       </c>
-      <c r="C71" s="25"/>
-      <c r="D71" s="26" t="s">
+      <c r="C71" s="24"/>
+      <c r="D71" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E71" s="19"/>
@@ -1769,8 +1769,8 @@
       <c r="B72" s="11">
         <v>65</v>
       </c>
-      <c r="C72" s="25"/>
-      <c r="D72" s="26" t="s">
+      <c r="C72" s="24"/>
+      <c r="D72" s="23" t="s">
         <v>75</v>
       </c>
       <c r="E72" s="19"/>
@@ -1779,8 +1779,8 @@
       <c r="B73" s="11">
         <v>66</v>
       </c>
-      <c r="C73" s="25"/>
-      <c r="D73" s="26" t="s">
+      <c r="C73" s="24"/>
+      <c r="D73" s="23" t="s">
         <v>76</v>
       </c>
       <c r="E73" s="19"/>
@@ -1789,8 +1789,8 @@
       <c r="B74" s="11">
         <v>67</v>
       </c>
-      <c r="C74" s="25"/>
-      <c r="D74" s="26" t="s">
+      <c r="C74" s="24"/>
+      <c r="D74" s="23" t="s">
         <v>77</v>
       </c>
       <c r="E74" s="19"/>
@@ -1799,8 +1799,8 @@
       <c r="B75" s="11">
         <v>68</v>
       </c>
-      <c r="C75" s="25"/>
-      <c r="D75" s="26" t="s">
+      <c r="C75" s="24"/>
+      <c r="D75" s="23" t="s">
         <v>78</v>
       </c>
       <c r="E75" s="19"/>
@@ -1809,8 +1809,8 @@
       <c r="B76" s="11">
         <v>69</v>
       </c>
-      <c r="C76" s="25"/>
-      <c r="D76" s="26" t="s">
+      <c r="C76" s="24"/>
+      <c r="D76" s="23" t="s">
         <v>79</v>
       </c>
       <c r="E76" s="19"/>
@@ -1819,10 +1819,10 @@
       <c r="B77" s="11">
         <v>83</v>
       </c>
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="D77" s="26" t="s">
+      <c r="D77" s="23" t="s">
         <v>94</v>
       </c>
       <c r="E77" s="19"/>
@@ -1831,8 +1831,8 @@
       <c r="B78" s="11">
         <v>84</v>
       </c>
-      <c r="C78" s="27"/>
-      <c r="D78" s="26" t="s">
+      <c r="C78" s="25"/>
+      <c r="D78" s="23" t="s">
         <v>95</v>
       </c>
       <c r="E78" s="19"/>
@@ -1841,8 +1841,8 @@
       <c r="B79" s="11">
         <v>85</v>
       </c>
-      <c r="C79" s="27"/>
-      <c r="D79" s="26" t="s">
+      <c r="C79" s="25"/>
+      <c r="D79" s="23" t="s">
         <v>96</v>
       </c>
       <c r="E79" s="19"/>
@@ -1851,8 +1851,8 @@
       <c r="B80" s="11">
         <v>86</v>
       </c>
-      <c r="C80" s="27"/>
-      <c r="D80" s="26" t="s">
+      <c r="C80" s="25"/>
+      <c r="D80" s="23" t="s">
         <v>97</v>
       </c>
       <c r="E80" s="19"/>
@@ -1861,8 +1861,8 @@
       <c r="B81" s="11">
         <v>87</v>
       </c>
-      <c r="C81" s="27"/>
-      <c r="D81" s="26" t="s">
+      <c r="C81" s="25"/>
+      <c r="D81" s="23" t="s">
         <v>98</v>
       </c>
       <c r="E81" s="19"/>
@@ -1871,8 +1871,8 @@
       <c r="B82" s="11">
         <v>88</v>
       </c>
-      <c r="C82" s="27"/>
-      <c r="D82" s="26" t="s">
+      <c r="C82" s="25"/>
+      <c r="D82" s="23" t="s">
         <v>99</v>
       </c>
       <c r="E82" s="19"/>
@@ -1881,8 +1881,8 @@
       <c r="B83" s="11">
         <v>89</v>
       </c>
-      <c r="C83" s="27"/>
-      <c r="D83" s="26" t="s">
+      <c r="C83" s="25"/>
+      <c r="D83" s="23" t="s">
         <v>100</v>
       </c>
       <c r="E83" s="19"/>
@@ -1891,8 +1891,8 @@
       <c r="B84" s="11">
         <v>90</v>
       </c>
-      <c r="C84" s="27"/>
-      <c r="D84" s="26" t="s">
+      <c r="C84" s="25"/>
+      <c r="D84" s="23" t="s">
         <v>101</v>
       </c>
       <c r="E84" s="19"/>
@@ -1901,8 +1901,8 @@
       <c r="B85" s="11">
         <v>91</v>
       </c>
-      <c r="C85" s="27"/>
-      <c r="D85" s="26" t="s">
+      <c r="C85" s="25"/>
+      <c r="D85" s="23" t="s">
         <v>102</v>
       </c>
       <c r="E85" s="19"/>
@@ -1911,8 +1911,8 @@
       <c r="B86" s="11">
         <v>92</v>
       </c>
-      <c r="C86" s="27"/>
-      <c r="D86" s="26" t="s">
+      <c r="C86" s="25"/>
+      <c r="D86" s="23" t="s">
         <v>103</v>
       </c>
       <c r="E86" s="19"/>
@@ -1921,8 +1921,8 @@
       <c r="B87" s="11">
         <v>93</v>
       </c>
-      <c r="C87" s="27"/>
-      <c r="D87" s="26" t="s">
+      <c r="C87" s="25"/>
+      <c r="D87" s="23" t="s">
         <v>104</v>
       </c>
       <c r="E87" s="19"/>
@@ -1931,8 +1931,8 @@
       <c r="B88" s="11">
         <v>94</v>
       </c>
-      <c r="C88" s="27"/>
-      <c r="D88" s="26" t="s">
+      <c r="C88" s="25"/>
+      <c r="D88" s="23" t="s">
         <v>105</v>
       </c>
       <c r="E88" s="19"/>
@@ -1941,8 +1941,8 @@
       <c r="B89" s="11">
         <v>95</v>
       </c>
-      <c r="C89" s="27"/>
-      <c r="D89" s="26" t="s">
+      <c r="C89" s="25"/>
+      <c r="D89" s="23" t="s">
         <v>106</v>
       </c>
       <c r="E89" s="19"/>
@@ -1951,8 +1951,8 @@
       <c r="B90" s="11">
         <v>96</v>
       </c>
-      <c r="C90" s="27"/>
-      <c r="D90" s="26" t="s">
+      <c r="C90" s="25"/>
+      <c r="D90" s="23" t="s">
         <v>107</v>
       </c>
       <c r="E90" s="19"/>
@@ -1961,8 +1961,8 @@
       <c r="B91" s="11">
         <v>97</v>
       </c>
-      <c r="C91" s="27"/>
-      <c r="D91" s="26" t="s">
+      <c r="C91" s="25"/>
+      <c r="D91" s="23" t="s">
         <v>108</v>
       </c>
       <c r="E91" s="19"/>
@@ -1971,8 +1971,8 @@
       <c r="B92" s="11">
         <v>98</v>
       </c>
-      <c r="C92" s="27"/>
-      <c r="D92" s="26" t="s">
+      <c r="C92" s="25"/>
+      <c r="D92" s="23" t="s">
         <v>109</v>
       </c>
       <c r="E92" s="19"/>
@@ -1981,8 +1981,8 @@
       <c r="B93" s="11">
         <v>99</v>
       </c>
-      <c r="C93" s="27"/>
-      <c r="D93" s="26" t="s">
+      <c r="C93" s="25"/>
+      <c r="D93" s="23" t="s">
         <v>110</v>
       </c>
       <c r="E93" s="19"/>
@@ -1991,7 +1991,7 @@
       <c r="B94" s="11">
         <v>100</v>
       </c>
-      <c r="C94" s="27"/>
+      <c r="C94" s="25"/>
       <c r="D94" s="18" t="s">
         <v>113</v>
       </c>
@@ -2001,7 +2001,7 @@
       <c r="B95" s="11">
         <v>101</v>
       </c>
-      <c r="C95" s="27"/>
+      <c r="C95" s="25"/>
       <c r="D95" s="18" t="s">
         <v>114</v>
       </c>
@@ -2011,7 +2011,7 @@
       <c r="B96" s="11">
         <v>102</v>
       </c>
-      <c r="C96" s="27"/>
+      <c r="C96" s="25"/>
       <c r="D96" s="18" t="s">
         <v>115</v>
       </c>
@@ -2021,7 +2021,7 @@
       <c r="B97" s="11">
         <v>103</v>
       </c>
-      <c r="C97" s="27"/>
+      <c r="C97" s="25"/>
       <c r="D97" s="18" t="s">
         <v>116</v>
       </c>
@@ -2031,7 +2031,7 @@
       <c r="B98" s="11">
         <v>104</v>
       </c>
-      <c r="C98" s="27"/>
+      <c r="C98" s="25"/>
       <c r="D98" s="18" t="s">
         <v>117</v>
       </c>
@@ -2041,7 +2041,7 @@
       <c r="B99" s="11">
         <v>105</v>
       </c>
-      <c r="C99" s="27"/>
+      <c r="C99" s="25"/>
       <c r="D99" s="18" t="s">
         <v>118</v>
       </c>
@@ -2051,7 +2051,7 @@
       <c r="B100" s="11">
         <v>106</v>
       </c>
-      <c r="C100" s="27"/>
+      <c r="C100" s="25"/>
       <c r="D100" s="18" t="s">
         <v>119</v>
       </c>
@@ -2061,7 +2061,7 @@
       <c r="B101" s="11">
         <v>107</v>
       </c>
-      <c r="C101" s="27"/>
+      <c r="C101" s="25"/>
       <c r="D101" s="18" t="s">
         <v>120</v>
       </c>
@@ -2071,7 +2071,7 @@
       <c r="B102" s="11">
         <v>108</v>
       </c>
-      <c r="C102" s="27"/>
+      <c r="C102" s="25"/>
       <c r="D102" s="18" t="s">
         <v>121</v>
       </c>
@@ -2081,7 +2081,7 @@
       <c r="B103" s="11">
         <v>109</v>
       </c>
-      <c r="C103" s="27"/>
+      <c r="C103" s="25"/>
       <c r="D103" s="18" t="s">
         <v>122</v>
       </c>
@@ -2091,10 +2091,10 @@
       <c r="B104" s="11">
         <v>110</v>
       </c>
-      <c r="C104" s="25" t="s">
+      <c r="C104" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D104" s="26" t="s">
+      <c r="D104" s="23" t="s">
         <v>81</v>
       </c>
       <c r="E104" s="19"/>
@@ -2103,8 +2103,8 @@
       <c r="B105" s="11">
         <v>111</v>
       </c>
-      <c r="C105" s="25"/>
-      <c r="D105" s="26" t="s">
+      <c r="C105" s="24"/>
+      <c r="D105" s="23" t="s">
         <v>82</v>
       </c>
       <c r="E105" s="19"/>
@@ -2113,8 +2113,8 @@
       <c r="B106" s="11">
         <v>112</v>
       </c>
-      <c r="C106" s="25"/>
-      <c r="D106" s="26" t="s">
+      <c r="C106" s="24"/>
+      <c r="D106" s="23" t="s">
         <v>83</v>
       </c>
       <c r="E106" s="19"/>
@@ -2123,8 +2123,8 @@
       <c r="B107" s="11">
         <v>113</v>
       </c>
-      <c r="C107" s="25"/>
-      <c r="D107" s="26" t="s">
+      <c r="C107" s="24"/>
+      <c r="D107" s="23" t="s">
         <v>84</v>
       </c>
       <c r="E107" s="19"/>
@@ -2133,8 +2133,8 @@
       <c r="B108" s="11">
         <v>114</v>
       </c>
-      <c r="C108" s="25"/>
-      <c r="D108" s="26" t="s">
+      <c r="C108" s="24"/>
+      <c r="D108" s="23" t="s">
         <v>85</v>
       </c>
       <c r="E108" s="19"/>
@@ -2143,8 +2143,8 @@
       <c r="B109" s="11">
         <v>115</v>
       </c>
-      <c r="C109" s="25"/>
-      <c r="D109" s="26" t="s">
+      <c r="C109" s="24"/>
+      <c r="D109" s="23" t="s">
         <v>86</v>
       </c>
       <c r="E109" s="19"/>
@@ -2153,8 +2153,8 @@
       <c r="B110" s="11">
         <v>116</v>
       </c>
-      <c r="C110" s="25"/>
-      <c r="D110" s="26" t="s">
+      <c r="C110" s="24"/>
+      <c r="D110" s="23" t="s">
         <v>87</v>
       </c>
       <c r="E110" s="19"/>
@@ -2163,8 +2163,8 @@
       <c r="B111" s="11">
         <v>117</v>
       </c>
-      <c r="C111" s="25"/>
-      <c r="D111" s="26" t="s">
+      <c r="C111" s="24"/>
+      <c r="D111" s="23" t="s">
         <v>88</v>
       </c>
       <c r="E111" s="19"/>
@@ -2173,8 +2173,8 @@
       <c r="B112" s="11">
         <v>118</v>
       </c>
-      <c r="C112" s="25"/>
-      <c r="D112" s="26" t="s">
+      <c r="C112" s="24"/>
+      <c r="D112" s="23" t="s">
         <v>89</v>
       </c>
       <c r="E112" s="19"/>
@@ -2183,8 +2183,8 @@
       <c r="B113" s="11">
         <v>119</v>
       </c>
-      <c r="C113" s="25"/>
-      <c r="D113" s="26" t="s">
+      <c r="C113" s="24"/>
+      <c r="D113" s="23" t="s">
         <v>90</v>
       </c>
       <c r="E113" s="19"/>
@@ -2193,8 +2193,8 @@
       <c r="B114" s="11">
         <v>120</v>
       </c>
-      <c r="C114" s="25"/>
-      <c r="D114" s="26" t="s">
+      <c r="C114" s="24"/>
+      <c r="D114" s="23" t="s">
         <v>91</v>
       </c>
       <c r="E114" s="19"/>
@@ -2203,8 +2203,8 @@
       <c r="B115" s="11">
         <v>121</v>
       </c>
-      <c r="C115" s="25"/>
-      <c r="D115" s="26" t="s">
+      <c r="C115" s="24"/>
+      <c r="D115" s="23" t="s">
         <v>92</v>
       </c>
       <c r="E115" s="19"/>
@@ -2213,8 +2213,8 @@
       <c r="B116" s="11">
         <v>122</v>
       </c>
-      <c r="C116" s="25"/>
-      <c r="D116" s="26" t="s">
+      <c r="C116" s="24"/>
+      <c r="D116" s="23" t="s">
         <v>93</v>
       </c>
       <c r="E116" s="19"/>

--- a/Genshin Impact_TC.xlsx
+++ b/Genshin Impact_TC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PORTFOLIO\BGY_PORTFOLIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87FE116-F5D0-4F3F-AD20-2C6492D7C330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C31A9B9-95E7-4330-9648-281FC260333B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -652,7 +652,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -693,12 +693,6 @@
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1050,8 +1044,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:E447"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection sqref="A1:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1066,12 +1060,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="27.6" x14ac:dyDescent="0.4">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="2:5" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B3" s="7"/>
@@ -1090,7 +1084,7 @@
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1104,935 +1098,935 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B8" s="11">
         <v>1</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B9" s="11">
         <v>2</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="19"/>
-    </row>
-    <row r="10" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B10" s="11">
         <v>3</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="23" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="19"/>
-    </row>
-    <row r="11" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B11" s="11">
         <v>4</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="23" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="19"/>
-    </row>
-    <row r="12" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B12" s="11">
         <v>5</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="23" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="19"/>
-    </row>
-    <row r="13" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11">
         <v>6</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="23" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="19"/>
-    </row>
-    <row r="14" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B14" s="11">
         <v>7</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="23" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B15" s="11">
         <v>8</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="23" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="19"/>
-    </row>
-    <row r="16" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B16" s="11">
         <v>9</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="23" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="19"/>
-    </row>
-    <row r="17" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B17" s="11">
         <v>10</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="23" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="19"/>
-    </row>
-    <row r="18" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B18" s="11">
         <v>11</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="23" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="19"/>
-    </row>
-    <row r="19" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B19" s="11">
         <v>12</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="23" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="19"/>
-    </row>
-    <row r="20" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B20" s="11">
         <v>13</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="23" t="s">
+      <c r="C20" s="22"/>
+      <c r="D20" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="19"/>
-    </row>
-    <row r="21" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B21" s="11">
         <v>14</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="23" t="s">
+      <c r="C21" s="22"/>
+      <c r="D21" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="19"/>
-    </row>
-    <row r="22" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B22" s="11">
         <v>15</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="19"/>
-    </row>
-    <row r="23" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E22" s="17"/>
+    </row>
+    <row r="23" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B23" s="11">
         <v>16</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="23" t="s">
+      <c r="C23" s="22"/>
+      <c r="D23" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="19"/>
-    </row>
-    <row r="24" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B24" s="11">
         <v>17</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="23" t="s">
+      <c r="C24" s="22"/>
+      <c r="D24" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="19"/>
-    </row>
-    <row r="25" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E24" s="17"/>
+    </row>
+    <row r="25" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B25" s="11">
         <v>18</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="23" t="s">
+      <c r="C25" s="22"/>
+      <c r="D25" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="19"/>
-    </row>
-    <row r="26" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E25" s="17"/>
+    </row>
+    <row r="26" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B26" s="11">
         <v>19</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="23" t="s">
+      <c r="C26" s="22"/>
+      <c r="D26" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="19"/>
-    </row>
-    <row r="27" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B27" s="11">
         <v>20</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="23" t="s">
+      <c r="C27" s="22"/>
+      <c r="D27" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="19"/>
-    </row>
-    <row r="28" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E27" s="17"/>
+    </row>
+    <row r="28" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B28" s="11">
         <v>21</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="23" t="s">
+      <c r="C28" s="22"/>
+      <c r="D28" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="19"/>
-    </row>
-    <row r="29" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E28" s="17"/>
+    </row>
+    <row r="29" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B29" s="11">
         <v>22</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="23" t="s">
+      <c r="C29" s="22"/>
+      <c r="D29" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="19"/>
-    </row>
-    <row r="30" spans="2:5" s="20" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" spans="2:5" s="18" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B30" s="11">
         <v>23</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="23" t="s">
+      <c r="C30" s="22"/>
+      <c r="D30" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="19"/>
-    </row>
-    <row r="31" spans="2:5" s="20" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="E30" s="17"/>
+    </row>
+    <row r="31" spans="2:5" s="18" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B31" s="11">
         <v>24</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="23" t="s">
+      <c r="C31" s="22"/>
+      <c r="D31" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="19"/>
-    </row>
-    <row r="32" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E31" s="17"/>
+    </row>
+    <row r="32" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B32" s="11">
         <v>25</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="23" t="s">
+      <c r="C32" s="22"/>
+      <c r="D32" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="19"/>
-    </row>
-    <row r="33" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E32" s="17"/>
+    </row>
+    <row r="33" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B33" s="11">
         <v>26</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="19"/>
-    </row>
-    <row r="34" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E33" s="17"/>
+    </row>
+    <row r="34" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B34" s="11">
         <v>27</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="23" t="s">
+      <c r="C34" s="22"/>
+      <c r="D34" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="19"/>
-    </row>
-    <row r="35" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E34" s="17"/>
+    </row>
+    <row r="35" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B35" s="11">
         <v>28</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="23" t="s">
+      <c r="C35" s="22"/>
+      <c r="D35" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="19"/>
-    </row>
-    <row r="36" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E35" s="17"/>
+    </row>
+    <row r="36" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B36" s="11">
         <v>29</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="23" t="s">
+      <c r="C36" s="22"/>
+      <c r="D36" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="19"/>
-    </row>
-    <row r="37" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E36" s="17"/>
+    </row>
+    <row r="37" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B37" s="11">
         <v>30</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="23" t="s">
+      <c r="C37" s="22"/>
+      <c r="D37" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="19"/>
-    </row>
-    <row r="38" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E37" s="17"/>
+    </row>
+    <row r="38" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B38" s="11">
         <v>31</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="23" t="s">
+      <c r="C38" s="22"/>
+      <c r="D38" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="19"/>
-    </row>
-    <row r="39" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E38" s="17"/>
+    </row>
+    <row r="39" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B39" s="11">
         <v>32</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="23" t="s">
+      <c r="C39" s="22"/>
+      <c r="D39" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="19"/>
-    </row>
-    <row r="40" spans="2:5" s="20" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="E39" s="17"/>
+    </row>
+    <row r="40" spans="2:5" s="18" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B40" s="11">
         <v>33</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="23" t="s">
+      <c r="C40" s="22"/>
+      <c r="D40" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="19"/>
-    </row>
-    <row r="41" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E40" s="17"/>
+    </row>
+    <row r="41" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B41" s="11">
         <v>34</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="22"/>
+      <c r="D41" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="19"/>
-    </row>
-    <row r="42" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E41" s="17"/>
+    </row>
+    <row r="42" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B42" s="11">
         <v>35</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="23" t="s">
+      <c r="C42" s="22"/>
+      <c r="D42" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="19"/>
-    </row>
-    <row r="43" spans="2:5" s="20" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="E42" s="17"/>
+    </row>
+    <row r="43" spans="2:5" s="18" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B43" s="11">
         <v>36</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="23" t="s">
+      <c r="C43" s="22"/>
+      <c r="D43" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="19"/>
-    </row>
-    <row r="44" spans="2:5" s="20" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="E43" s="17"/>
+    </row>
+    <row r="44" spans="2:5" s="18" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B44" s="11">
         <v>37</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="23" t="s">
+      <c r="C44" s="22"/>
+      <c r="D44" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E44" s="19"/>
-    </row>
-    <row r="45" spans="2:5" s="20" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="E44" s="17"/>
+    </row>
+    <row r="45" spans="2:5" s="18" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B45" s="11">
         <v>38</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="23" t="s">
+      <c r="C45" s="22"/>
+      <c r="D45" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E45" s="19"/>
-    </row>
-    <row r="46" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E45" s="17"/>
+    </row>
+    <row r="46" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B46" s="11">
         <v>39</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="23" t="s">
+      <c r="C46" s="22"/>
+      <c r="D46" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E46" s="19"/>
-    </row>
-    <row r="47" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E46" s="17"/>
+    </row>
+    <row r="47" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B47" s="11">
         <v>40</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="23" t="s">
+      <c r="C47" s="22"/>
+      <c r="D47" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E47" s="19"/>
-    </row>
-    <row r="48" spans="2:5" s="20" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="E47" s="17"/>
+    </row>
+    <row r="48" spans="2:5" s="18" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B48" s="11">
         <v>41</v>
       </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="23" t="s">
+      <c r="C48" s="22"/>
+      <c r="D48" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E48" s="19"/>
-    </row>
-    <row r="49" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E48" s="17"/>
+    </row>
+    <row r="49" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B49" s="11">
         <v>42</v>
       </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="23" t="s">
+      <c r="C49" s="22"/>
+      <c r="D49" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E49" s="19"/>
-    </row>
-    <row r="50" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E49" s="17"/>
+    </row>
+    <row r="50" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B50" s="11">
         <v>43</v>
       </c>
-      <c r="C50" s="24"/>
-      <c r="D50" s="23" t="s">
+      <c r="C50" s="22"/>
+      <c r="D50" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E50" s="19"/>
-    </row>
-    <row r="51" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E50" s="17"/>
+    </row>
+    <row r="51" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B51" s="11">
         <v>44</v>
       </c>
-      <c r="C51" s="24"/>
-      <c r="D51" s="23" t="s">
+      <c r="C51" s="22"/>
+      <c r="D51" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E51" s="19"/>
-    </row>
-    <row r="52" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E51" s="17"/>
+    </row>
+    <row r="52" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B52" s="11">
         <v>45</v>
       </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="23" t="s">
+      <c r="C52" s="22"/>
+      <c r="D52" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E52" s="19"/>
-    </row>
-    <row r="53" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E52" s="17"/>
+    </row>
+    <row r="53" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B53" s="11">
         <v>46</v>
       </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="23" t="s">
+      <c r="C53" s="22"/>
+      <c r="D53" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E53" s="19"/>
-    </row>
-    <row r="54" spans="2:5" s="20" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="E53" s="17"/>
+    </row>
+    <row r="54" spans="2:5" s="18" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B54" s="11">
         <v>47</v>
       </c>
-      <c r="C54" s="24"/>
-      <c r="D54" s="23" t="s">
+      <c r="C54" s="22"/>
+      <c r="D54" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E54" s="19"/>
-    </row>
-    <row r="55" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E54" s="17"/>
+    </row>
+    <row r="55" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B55" s="11">
         <v>48</v>
       </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="23" t="s">
+      <c r="C55" s="22"/>
+      <c r="D55" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E55" s="19"/>
-    </row>
-    <row r="56" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E55" s="17"/>
+    </row>
+    <row r="56" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B56" s="11">
         <v>49</v>
       </c>
-      <c r="C56" s="24"/>
-      <c r="D56" s="23" t="s">
+      <c r="C56" s="22"/>
+      <c r="D56" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E56" s="19"/>
-    </row>
-    <row r="57" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E56" s="17"/>
+    </row>
+    <row r="57" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B57" s="11">
         <v>50</v>
       </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="23" t="s">
+      <c r="C57" s="22"/>
+      <c r="D57" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E57" s="19"/>
-    </row>
-    <row r="58" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E57" s="17"/>
+    </row>
+    <row r="58" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B58" s="11">
         <v>51</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="D58" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="E58" s="19"/>
-    </row>
-    <row r="59" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E58" s="17"/>
+    </row>
+    <row r="59" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B59" s="11">
         <v>52</v>
       </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="23" t="s">
+      <c r="C59" s="22"/>
+      <c r="D59" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E59" s="19"/>
-    </row>
-    <row r="60" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E59" s="17"/>
+    </row>
+    <row r="60" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B60" s="11">
         <v>53</v>
       </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="23" t="s">
+      <c r="C60" s="22"/>
+      <c r="D60" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E60" s="19"/>
-    </row>
-    <row r="61" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E60" s="17"/>
+    </row>
+    <row r="61" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B61" s="11">
         <v>54</v>
       </c>
-      <c r="C61" s="24"/>
-      <c r="D61" s="23" t="s">
+      <c r="C61" s="22"/>
+      <c r="D61" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E61" s="19"/>
-    </row>
-    <row r="62" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E61" s="17"/>
+    </row>
+    <row r="62" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B62" s="11">
         <v>55</v>
       </c>
-      <c r="C62" s="24"/>
-      <c r="D62" s="23" t="s">
+      <c r="C62" s="22"/>
+      <c r="D62" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E62" s="19"/>
-    </row>
-    <row r="63" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E62" s="17"/>
+    </row>
+    <row r="63" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B63" s="11">
         <v>56</v>
       </c>
-      <c r="C63" s="24"/>
-      <c r="D63" s="23" t="s">
+      <c r="C63" s="22"/>
+      <c r="D63" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="E63" s="19"/>
-    </row>
-    <row r="64" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E63" s="17"/>
+    </row>
+    <row r="64" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B64" s="11">
         <v>57</v>
       </c>
-      <c r="C64" s="24"/>
-      <c r="D64" s="23" t="s">
+      <c r="C64" s="22"/>
+      <c r="D64" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E64" s="19"/>
-    </row>
-    <row r="65" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E64" s="17"/>
+    </row>
+    <row r="65" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B65" s="11">
         <v>58</v>
       </c>
-      <c r="C65" s="24"/>
-      <c r="D65" s="23" t="s">
+      <c r="C65" s="22"/>
+      <c r="D65" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="E65" s="19"/>
-    </row>
-    <row r="66" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E65" s="17"/>
+    </row>
+    <row r="66" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B66" s="11">
         <v>59</v>
       </c>
-      <c r="C66" s="24"/>
-      <c r="D66" s="23" t="s">
+      <c r="C66" s="22"/>
+      <c r="D66" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E66" s="19"/>
-    </row>
-    <row r="67" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E66" s="17"/>
+    </row>
+    <row r="67" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B67" s="11">
         <v>60</v>
       </c>
-      <c r="C67" s="24"/>
-      <c r="D67" s="23" t="s">
+      <c r="C67" s="22"/>
+      <c r="D67" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E67" s="19"/>
-    </row>
-    <row r="68" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E67" s="17"/>
+    </row>
+    <row r="68" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B68" s="11">
         <v>61</v>
       </c>
-      <c r="C68" s="24"/>
-      <c r="D68" s="23" t="s">
+      <c r="C68" s="22"/>
+      <c r="D68" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E68" s="19"/>
-    </row>
-    <row r="69" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E68" s="17"/>
+    </row>
+    <row r="69" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B69" s="11">
         <v>62</v>
       </c>
-      <c r="C69" s="24"/>
-      <c r="D69" s="23" t="s">
+      <c r="C69" s="22"/>
+      <c r="D69" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E69" s="19"/>
-    </row>
-    <row r="70" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E69" s="17"/>
+    </row>
+    <row r="70" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B70" s="11">
         <v>63</v>
       </c>
-      <c r="C70" s="24"/>
-      <c r="D70" s="23" t="s">
+      <c r="C70" s="22"/>
+      <c r="D70" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="E70" s="19"/>
-    </row>
-    <row r="71" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E70" s="17"/>
+    </row>
+    <row r="71" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B71" s="11">
         <v>64</v>
       </c>
-      <c r="C71" s="24"/>
-      <c r="D71" s="23" t="s">
+      <c r="C71" s="22"/>
+      <c r="D71" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="19"/>
-    </row>
-    <row r="72" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E71" s="17"/>
+    </row>
+    <row r="72" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B72" s="11">
         <v>65</v>
       </c>
-      <c r="C72" s="24"/>
-      <c r="D72" s="23" t="s">
+      <c r="C72" s="22"/>
+      <c r="D72" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="E72" s="19"/>
-    </row>
-    <row r="73" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E72" s="17"/>
+    </row>
+    <row r="73" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B73" s="11">
         <v>66</v>
       </c>
-      <c r="C73" s="24"/>
-      <c r="D73" s="23" t="s">
+      <c r="C73" s="22"/>
+      <c r="D73" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="E73" s="19"/>
-    </row>
-    <row r="74" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E73" s="17"/>
+    </row>
+    <row r="74" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B74" s="11">
         <v>67</v>
       </c>
-      <c r="C74" s="24"/>
-      <c r="D74" s="23" t="s">
+      <c r="C74" s="22"/>
+      <c r="D74" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E74" s="19"/>
-    </row>
-    <row r="75" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E74" s="17"/>
+    </row>
+    <row r="75" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B75" s="11">
         <v>68</v>
       </c>
-      <c r="C75" s="24"/>
-      <c r="D75" s="23" t="s">
+      <c r="C75" s="22"/>
+      <c r="D75" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E75" s="19"/>
-    </row>
-    <row r="76" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E75" s="17"/>
+    </row>
+    <row r="76" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B76" s="11">
         <v>69</v>
       </c>
-      <c r="C76" s="24"/>
-      <c r="D76" s="23" t="s">
+      <c r="C76" s="22"/>
+      <c r="D76" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E76" s="19"/>
-    </row>
-    <row r="77" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E76" s="17"/>
+    </row>
+    <row r="77" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B77" s="11">
         <v>83</v>
       </c>
-      <c r="C77" s="25" t="s">
+      <c r="C77" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D77" s="23" t="s">
+      <c r="D77" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="E77" s="19"/>
-    </row>
-    <row r="78" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E77" s="17"/>
+    </row>
+    <row r="78" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B78" s="11">
         <v>84</v>
       </c>
-      <c r="C78" s="25"/>
-      <c r="D78" s="23" t="s">
+      <c r="C78" s="23"/>
+      <c r="D78" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E78" s="19"/>
-    </row>
-    <row r="79" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E78" s="17"/>
+    </row>
+    <row r="79" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B79" s="11">
         <v>85</v>
       </c>
-      <c r="C79" s="25"/>
-      <c r="D79" s="23" t="s">
+      <c r="C79" s="23"/>
+      <c r="D79" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="E79" s="19"/>
-    </row>
-    <row r="80" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E79" s="17"/>
+    </row>
+    <row r="80" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B80" s="11">
         <v>86</v>
       </c>
-      <c r="C80" s="25"/>
-      <c r="D80" s="23" t="s">
+      <c r="C80" s="23"/>
+      <c r="D80" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="E80" s="19"/>
-    </row>
-    <row r="81" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E80" s="17"/>
+    </row>
+    <row r="81" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B81" s="11">
         <v>87</v>
       </c>
-      <c r="C81" s="25"/>
-      <c r="D81" s="23" t="s">
+      <c r="C81" s="23"/>
+      <c r="D81" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="E81" s="19"/>
-    </row>
-    <row r="82" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E81" s="17"/>
+    </row>
+    <row r="82" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B82" s="11">
         <v>88</v>
       </c>
-      <c r="C82" s="25"/>
-      <c r="D82" s="23" t="s">
+      <c r="C82" s="23"/>
+      <c r="D82" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="E82" s="19"/>
-    </row>
-    <row r="83" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E82" s="17"/>
+    </row>
+    <row r="83" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B83" s="11">
         <v>89</v>
       </c>
-      <c r="C83" s="25"/>
-      <c r="D83" s="23" t="s">
+      <c r="C83" s="23"/>
+      <c r="D83" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="E83" s="19"/>
-    </row>
-    <row r="84" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E83" s="17"/>
+    </row>
+    <row r="84" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B84" s="11">
         <v>90</v>
       </c>
-      <c r="C84" s="25"/>
-      <c r="D84" s="23" t="s">
+      <c r="C84" s="23"/>
+      <c r="D84" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="E84" s="19"/>
-    </row>
-    <row r="85" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E84" s="17"/>
+    </row>
+    <row r="85" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B85" s="11">
         <v>91</v>
       </c>
-      <c r="C85" s="25"/>
-      <c r="D85" s="23" t="s">
+      <c r="C85" s="23"/>
+      <c r="D85" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E85" s="19"/>
-    </row>
-    <row r="86" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E85" s="17"/>
+    </row>
+    <row r="86" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B86" s="11">
         <v>92</v>
       </c>
-      <c r="C86" s="25"/>
-      <c r="D86" s="23" t="s">
+      <c r="C86" s="23"/>
+      <c r="D86" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="E86" s="19"/>
-    </row>
-    <row r="87" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E86" s="17"/>
+    </row>
+    <row r="87" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B87" s="11">
         <v>93</v>
       </c>
-      <c r="C87" s="25"/>
-      <c r="D87" s="23" t="s">
+      <c r="C87" s="23"/>
+      <c r="D87" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="E87" s="19"/>
-    </row>
-    <row r="88" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E87" s="17"/>
+    </row>
+    <row r="88" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B88" s="11">
         <v>94</v>
       </c>
-      <c r="C88" s="25"/>
-      <c r="D88" s="23" t="s">
+      <c r="C88" s="23"/>
+      <c r="D88" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E88" s="19"/>
-    </row>
-    <row r="89" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E88" s="17"/>
+    </row>
+    <row r="89" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B89" s="11">
         <v>95</v>
       </c>
-      <c r="C89" s="25"/>
-      <c r="D89" s="23" t="s">
+      <c r="C89" s="23"/>
+      <c r="D89" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E89" s="19"/>
-    </row>
-    <row r="90" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E89" s="17"/>
+    </row>
+    <row r="90" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B90" s="11">
         <v>96</v>
       </c>
-      <c r="C90" s="25"/>
-      <c r="D90" s="23" t="s">
+      <c r="C90" s="23"/>
+      <c r="D90" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="E90" s="19"/>
-    </row>
-    <row r="91" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E90" s="17"/>
+    </row>
+    <row r="91" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B91" s="11">
         <v>97</v>
       </c>
-      <c r="C91" s="25"/>
-      <c r="D91" s="23" t="s">
+      <c r="C91" s="23"/>
+      <c r="D91" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="E91" s="19"/>
-    </row>
-    <row r="92" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E91" s="17"/>
+    </row>
+    <row r="92" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B92" s="11">
         <v>98</v>
       </c>
-      <c r="C92" s="25"/>
-      <c r="D92" s="23" t="s">
+      <c r="C92" s="23"/>
+      <c r="D92" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="E92" s="19"/>
-    </row>
-    <row r="93" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E92" s="17"/>
+    </row>
+    <row r="93" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B93" s="11">
         <v>99</v>
       </c>
-      <c r="C93" s="25"/>
-      <c r="D93" s="23" t="s">
+      <c r="C93" s="23"/>
+      <c r="D93" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="E93" s="19"/>
-    </row>
-    <row r="94" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E93" s="17"/>
+    </row>
+    <row r="94" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B94" s="11">
         <v>100</v>
       </c>
-      <c r="C94" s="25"/>
-      <c r="D94" s="18" t="s">
+      <c r="C94" s="23"/>
+      <c r="D94" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E94" s="19"/>
-    </row>
-    <row r="95" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E94" s="17"/>
+    </row>
+    <row r="95" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B95" s="11">
         <v>101</v>
       </c>
-      <c r="C95" s="25"/>
-      <c r="D95" s="18" t="s">
+      <c r="C95" s="23"/>
+      <c r="D95" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="E95" s="19"/>
-    </row>
-    <row r="96" spans="2:5" s="20" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="E95" s="17"/>
+    </row>
+    <row r="96" spans="2:5" s="18" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B96" s="11">
         <v>102</v>
       </c>
-      <c r="C96" s="25"/>
-      <c r="D96" s="18" t="s">
+      <c r="C96" s="23"/>
+      <c r="D96" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="E96" s="19"/>
-    </row>
-    <row r="97" spans="2:5" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="E96" s="17"/>
+    </row>
+    <row r="97" spans="2:5" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B97" s="11">
         <v>103</v>
       </c>
-      <c r="C97" s="25"/>
-      <c r="D97" s="18" t="s">
+      <c r="C97" s="23"/>
+      <c r="D97" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="E97" s="19"/>
+      <c r="E97" s="17"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B98" s="11">
         <v>104</v>
       </c>
-      <c r="C98" s="25"/>
-      <c r="D98" s="18" t="s">
+      <c r="C98" s="23"/>
+      <c r="D98" s="16" t="s">
         <v>117</v>
       </c>
       <c r="E98" s="4"/>
@@ -2041,8 +2035,8 @@
       <c r="B99" s="11">
         <v>105</v>
       </c>
-      <c r="C99" s="25"/>
-      <c r="D99" s="18" t="s">
+      <c r="C99" s="23"/>
+      <c r="D99" s="16" t="s">
         <v>118</v>
       </c>
       <c r="E99" s="4"/>
@@ -2051,8 +2045,8 @@
       <c r="B100" s="11">
         <v>106</v>
       </c>
-      <c r="C100" s="25"/>
-      <c r="D100" s="18" t="s">
+      <c r="C100" s="23"/>
+      <c r="D100" s="16" t="s">
         <v>119</v>
       </c>
       <c r="E100" s="4"/>
@@ -2061,8 +2055,8 @@
       <c r="B101" s="11">
         <v>107</v>
       </c>
-      <c r="C101" s="25"/>
-      <c r="D101" s="18" t="s">
+      <c r="C101" s="23"/>
+      <c r="D101" s="16" t="s">
         <v>120</v>
       </c>
       <c r="E101" s="4"/>
@@ -2071,8 +2065,8 @@
       <c r="B102" s="11">
         <v>108</v>
       </c>
-      <c r="C102" s="25"/>
-      <c r="D102" s="18" t="s">
+      <c r="C102" s="23"/>
+      <c r="D102" s="16" t="s">
         <v>121</v>
       </c>
       <c r="E102" s="4"/>
@@ -2081,8 +2075,8 @@
       <c r="B103" s="11">
         <v>109</v>
       </c>
-      <c r="C103" s="25"/>
-      <c r="D103" s="18" t="s">
+      <c r="C103" s="23"/>
+      <c r="D103" s="16" t="s">
         <v>122</v>
       </c>
       <c r="E103" s="4"/>
@@ -2091,133 +2085,133 @@
       <c r="B104" s="11">
         <v>110</v>
       </c>
-      <c r="C104" s="24" t="s">
+      <c r="C104" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D104" s="23" t="s">
+      <c r="D104" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E104" s="19"/>
+      <c r="E104" s="17"/>
     </row>
     <row r="105" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B105" s="11">
         <v>111</v>
       </c>
-      <c r="C105" s="24"/>
-      <c r="D105" s="23" t="s">
+      <c r="C105" s="22"/>
+      <c r="D105" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E105" s="19"/>
+      <c r="E105" s="17"/>
     </row>
     <row r="106" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B106" s="11">
         <v>112</v>
       </c>
-      <c r="C106" s="24"/>
-      <c r="D106" s="23" t="s">
+      <c r="C106" s="22"/>
+      <c r="D106" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E106" s="19"/>
+      <c r="E106" s="17"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B107" s="11">
         <v>113</v>
       </c>
-      <c r="C107" s="24"/>
-      <c r="D107" s="23" t="s">
+      <c r="C107" s="22"/>
+      <c r="D107" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E107" s="19"/>
+      <c r="E107" s="17"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B108" s="11">
         <v>114</v>
       </c>
-      <c r="C108" s="24"/>
-      <c r="D108" s="23" t="s">
+      <c r="C108" s="22"/>
+      <c r="D108" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E108" s="19"/>
+      <c r="E108" s="17"/>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B109" s="11">
         <v>115</v>
       </c>
-      <c r="C109" s="24"/>
-      <c r="D109" s="23" t="s">
+      <c r="C109" s="22"/>
+      <c r="D109" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E109" s="19"/>
+      <c r="E109" s="17"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B110" s="11">
         <v>116</v>
       </c>
-      <c r="C110" s="24"/>
-      <c r="D110" s="23" t="s">
+      <c r="C110" s="22"/>
+      <c r="D110" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E110" s="19"/>
+      <c r="E110" s="17"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B111" s="11">
         <v>117</v>
       </c>
-      <c r="C111" s="24"/>
-      <c r="D111" s="23" t="s">
+      <c r="C111" s="22"/>
+      <c r="D111" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="E111" s="19"/>
+      <c r="E111" s="17"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B112" s="11">
         <v>118</v>
       </c>
-      <c r="C112" s="24"/>
-      <c r="D112" s="23" t="s">
+      <c r="C112" s="22"/>
+      <c r="D112" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E112" s="19"/>
+      <c r="E112" s="17"/>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B113" s="11">
         <v>119</v>
       </c>
-      <c r="C113" s="24"/>
-      <c r="D113" s="23" t="s">
+      <c r="C113" s="22"/>
+      <c r="D113" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E113" s="19"/>
+      <c r="E113" s="17"/>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B114" s="11">
         <v>120</v>
       </c>
-      <c r="C114" s="24"/>
-      <c r="D114" s="23" t="s">
+      <c r="C114" s="22"/>
+      <c r="D114" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E114" s="19"/>
+      <c r="E114" s="17"/>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B115" s="11">
         <v>121</v>
       </c>
-      <c r="C115" s="24"/>
-      <c r="D115" s="23" t="s">
+      <c r="C115" s="22"/>
+      <c r="D115" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E115" s="19"/>
+      <c r="E115" s="17"/>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B116" s="11">
         <v>122</v>
       </c>
-      <c r="C116" s="24"/>
-      <c r="D116" s="23" t="s">
+      <c r="C116" s="22"/>
+      <c r="D116" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E116" s="19"/>
+      <c r="E116" s="17"/>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B117" s="7"/>
@@ -3132,202 +3126,202 @@
       <c r="C328" s="9"/>
     </row>
     <row r="329" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B329" s="21">
+      <c r="B329" s="19">
         <v>421</v>
       </c>
-      <c r="C329" s="22"/>
+      <c r="C329" s="20"/>
     </row>
     <row r="330" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B330" s="11">
         <v>422</v>
       </c>
-      <c r="C330" s="22"/>
+      <c r="C330" s="20"/>
     </row>
     <row r="331" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B331" s="11">
         <v>423</v>
       </c>
-      <c r="C331" s="22"/>
+      <c r="C331" s="20"/>
     </row>
     <row r="332" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B332" s="11">
         <v>424</v>
       </c>
-      <c r="C332" s="22"/>
+      <c r="C332" s="20"/>
     </row>
     <row r="333" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B333" s="11">
         <v>425</v>
       </c>
-      <c r="C333" s="22"/>
+      <c r="C333" s="20"/>
     </row>
     <row r="334" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B334" s="11">
         <v>426</v>
       </c>
-      <c r="C334" s="22"/>
+      <c r="C334" s="20"/>
     </row>
     <row r="335" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B335" s="11">
         <v>427</v>
       </c>
-      <c r="C335" s="22"/>
+      <c r="C335" s="20"/>
     </row>
     <row r="336" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B336" s="11">
         <v>428</v>
       </c>
-      <c r="C336" s="22"/>
+      <c r="C336" s="20"/>
     </row>
     <row r="337" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B337" s="11">
         <v>429</v>
       </c>
-      <c r="C337" s="22"/>
+      <c r="C337" s="20"/>
     </row>
     <row r="338" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B338" s="11">
         <v>430</v>
       </c>
-      <c r="C338" s="22"/>
+      <c r="C338" s="20"/>
     </row>
     <row r="339" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B339" s="11">
         <v>431</v>
       </c>
-      <c r="C339" s="22"/>
+      <c r="C339" s="20"/>
     </row>
     <row r="340" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B340" s="11">
         <v>432</v>
       </c>
-      <c r="C340" s="22"/>
+      <c r="C340" s="20"/>
     </row>
     <row r="341" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B341" s="11">
         <v>433</v>
       </c>
-      <c r="C341" s="22"/>
+      <c r="C341" s="20"/>
     </row>
     <row r="342" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B342" s="11">
         <v>434</v>
       </c>
-      <c r="C342" s="22"/>
+      <c r="C342" s="20"/>
     </row>
     <row r="343" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B343" s="11">
         <v>435</v>
       </c>
-      <c r="C343" s="22"/>
+      <c r="C343" s="20"/>
     </row>
     <row r="344" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B344" s="11">
         <v>436</v>
       </c>
-      <c r="C344" s="22"/>
+      <c r="C344" s="20"/>
     </row>
     <row r="345" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B345" s="11">
         <v>437</v>
       </c>
-      <c r="C345" s="22"/>
+      <c r="C345" s="20"/>
     </row>
     <row r="346" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B346" s="11">
         <v>438</v>
       </c>
-      <c r="C346" s="22"/>
+      <c r="C346" s="20"/>
     </row>
     <row r="347" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B347" s="11">
         <v>439</v>
       </c>
-      <c r="C347" s="22"/>
+      <c r="C347" s="20"/>
     </row>
     <row r="348" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B348" s="11">
         <v>440</v>
       </c>
-      <c r="C348" s="22"/>
+      <c r="C348" s="20"/>
     </row>
     <row r="349" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B349" s="11">
         <v>441</v>
       </c>
-      <c r="C349" s="22"/>
+      <c r="C349" s="20"/>
     </row>
     <row r="350" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B350" s="11">
         <v>442</v>
       </c>
-      <c r="C350" s="22"/>
+      <c r="C350" s="20"/>
     </row>
     <row r="351" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B351" s="11">
         <v>443</v>
       </c>
-      <c r="C351" s="22"/>
+      <c r="C351" s="20"/>
     </row>
     <row r="352" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B352" s="11">
         <v>444</v>
       </c>
-      <c r="C352" s="22"/>
+      <c r="C352" s="20"/>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B353" s="11">
         <v>445</v>
       </c>
-      <c r="C353" s="22"/>
+      <c r="C353" s="20"/>
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B354" s="11">
         <v>446</v>
       </c>
-      <c r="C354" s="22"/>
+      <c r="C354" s="20"/>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B355" s="11">
         <v>447</v>
       </c>
-      <c r="C355" s="22"/>
+      <c r="C355" s="20"/>
     </row>
     <row r="356" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B356" s="11">
         <v>448</v>
       </c>
-      <c r="C356" s="22"/>
+      <c r="C356" s="20"/>
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B357" s="11">
         <v>449</v>
       </c>
-      <c r="C357" s="22"/>
+      <c r="C357" s="20"/>
     </row>
     <row r="358" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B358" s="11">
         <v>450</v>
       </c>
-      <c r="C358" s="22"/>
+      <c r="C358" s="20"/>
     </row>
     <row r="359" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B359" s="11">
         <v>451</v>
       </c>
-      <c r="C359" s="22"/>
+      <c r="C359" s="20"/>
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B360" s="11">
         <v>452</v>
       </c>
-      <c r="C360" s="22"/>
+      <c r="C360" s="20"/>
     </row>
     <row r="361" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B361" s="11">
         <v>453</v>
       </c>
-      <c r="C361" s="22"/>
+      <c r="C361" s="20"/>
     </row>
     <row r="362" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B362" s="11">
